--- a/outputExcel/fetchedInformation.xlsx
+++ b/outputExcel/fetchedInformation.xlsx
@@ -40,6 +40,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/outputExcel/fetchedInformation.xlsx
+++ b/outputExcel/fetchedInformation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAEED\Desktop\BusinessSearchEngine\outputExcel\"/>
     </mc:Choice>
@@ -35,7 +35,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,11 +43,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام کارشناس آشنا با استانداردهای بین الملی </t>
+  </si>
+  <si>
+    <t>یک شرکت مهندسی بین المللی در راستای تکمیل کادر فنی خود باشرایط زیر در تهران استخدام می نماید. عنوان شغلی    شرایط احراز کارشناس مهندسی    آشنا با استانداردهای بین الملی نظیر ASTM.ITC.EN.PIN جهت مرور مدارک و مستندات فنی متقاضیان رزومه خود را به آدرس ایمیل زیر ارسال نمایند.آدرس ایمیل: INSPECTOR.RESUME@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تهران</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%da%a9%d8%a7%d8%b1%d8%b4%d9%86%d8%a7%d8%b3-%d8%a2%d8%b4%d9%86%d8%a7-%d8%a8%d8%a7-%d8%a7%d8%b3%d8%aa%d8%a7%d9%86%d8%af%d8%a7%d8%b1%d8%af%d9%87%d8%a7%db%8c/</t>
+  </si>
+  <si>
+    <t>1394/06/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام مهندس صنایع مجرب </t>
+  </si>
+  <si>
+    <t>به مهندس صنایع آشنا به سیستم های مدیریتی در تهران نیازمندیم.متقاضیان واجد شرایط میتوانند رزومه خود را به ایمیل زیر ارسال نمایند و یا با شماره تلفن‌های زیر تماس حاصل نمایند.آدرس ایمیل: amh.cv2014@gmail.com تلفن: 02144955002</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%85%d9%87%d9%86%d8%af%d8%b3-%d8%b5%d9%86%d8%a7%db%8c%d8%b9-%d9%85%d8%ac%d8%b1%d8%a8-%d8%aa%d9%87%d8%b1%d8%a7%d9%86-5/</t>
+  </si>
+  <si>
+    <t>1394/10/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام کارشناس ارتباط با مشتریان در گروه خدمات همراه پرهام </t>
+  </si>
+  <si>
+    <t>گروه خدمات همراه پرهام، با نام تجاری موبیرو به دنبال جذب نیروی جوان و پرانرژی برای سمت کارشناس ارتباط با مشتریان با مشخصات زیر در تهران است. عنوان شغلی رشته و مقطع تحصیلی مهارت ها کارشناس ارتباط با مشتریانکارشناسی یا کارشناسی ارشد رشته های مدیریت یا سایر رشته های مرتبطحداقل یک سال سابقه کاری مرتبط علاقه مند به کار گروهی داشتن دانش کافی در زمینه‌ی مدیریت ارتباط با مشتری(CRM) آشنا به نرم افزارهای MS. Officeمتقاضیان محترم میبایست رزومه های خود را با ذکر کامل مشخصات از قبیل اطلاعات کامل تحصیلی (دانشگاه محل تحصیل ، رشته تحصیلی و سال فارغ التحصیلی) و همچنین سوابق کاری به آدرس ایمیل زیر ارسال نمایند.آدرس ایمیل: hr@parham-co.ir</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%da%a9%d8%a7%d8%b1%d8%b4%d9%86%d8%a7%d8%b3-%d8%a7%d8%b1%d8%aa%d8%a8%d8%a7%d8%b7-%d8%a8%d8%a7-%d9%85%d8%b4%d8%aa%d8%b1%db%8c%d8%a7%d9%86-%d8%af%d8%b1-%da%af/</t>
+  </si>
+  <si>
+    <t>1394/10/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام مسئول دفتر خانم در یک شرکت معتبر بازرگانی </t>
+  </si>
+  <si>
+    <t>یک شرکت معتبر بازرگانی، جهت تکمیل کادر اداری و پرسنلی خود، به یک مسئول دفتر خانم با شرایط ذیل در تهران نیازمند است. عنوان شغلی جنسیت شرایط احراز مسئول دفتر خانمدارا بودن حداقل ۲ سال سابقه کار مرتبط داشتن حداقل مدرک لیسانس ( رشته های مرتبط ) روابط عمومی بالا و توانایی ارتباط با افراد آشنایی کامل با کامپیوتر و کاربری اینترنت آشنایی کامل با نرم افزار Office آشنایی با زبان انگلیسی آشنایی با سیستم های اداری و بایگانیواجدین شرایط می توانند رزومه خود را به آدرس ایمیل زیر ارسال نمایند .آدرس ایمیل: estekhdam.rz@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%85%d8%b3%d8%a6%d9%88%d9%84-%d8%af%d9%81%d8%aa%d8%b1-%d8%ae%d8%a7%d9%86%d9%85-%d8%af%d8%b1-%db%8c%da%a9-%d8%b4%d8%b1%da%a9%d8%aa-%d9%85%d8%b9%d8%aa-3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام پزشک عمومی </t>
+  </si>
+  <si>
+    <t>به تعدادی پزشک عمومی در مشهد نیازمندیم.ساعت تماس ۱۳ الی ۲۱متقاضیان واجد شرایط میتوانند با شماره تلفن زیر تماس حاصل نمایند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مشهد</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%be%d8%b2%d8%b4%da%a9-%d8%b9%d9%85%d9%88%d9%85%db%8c-%d9%85%d8%b4%d9%87%d8%af-2/</t>
+  </si>
+  <si>
+    <t>1394/10/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام کارشناس مامایی جهت همکاری </t>
+  </si>
+  <si>
+    <t>به کارشناس مامایی در مشهد نیازمندیم.ساعت تماس ۱۳ الی ۲۱متقاضیان واجد شرایط میتوانند با شماره تلفن زیر تماس حاصل نمایند.</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%da%a9%d8%a7%d8%b1%d8%b4%d9%86%d8%a7%d8%b3-%d9%85%d8%a7%d9%85%d8%a7%db%8c%db%8c-%d8%ac%d9%87%d8%aa-%d9%87%d9%85%da%a9%d8%a7%d8%b1%db%8c-%d9%85%d8%b4%d9%87/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام مهندس عمران پایه یک و دو </t>
+  </si>
+  <si>
+    <t>به مهندس عمران پایه ۱ و ۲ نظام مهندسی مدیریت عامل جهت آزمایشگاه در تهران نیازمندیم. متقاضیان واجد شرایط میتوانند با شماره تلفن زیر تماس حاصل نمایند. تلفن: 02155389220</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%85%d9%87%d9%86%d8%af%d8%b3-%d8%b9%d9%85%d8%b1%d8%a7%d9%86-%d9%be%d8%a7%db%8c%d9%87-%db%8c%da%a9-%d9%88-%d8%af%d9%88-%d8%aa%d9%87%d8%b1%d8%a7%d9%86-2/</t>
+  </si>
+  <si>
+    <t>1394/10/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام پیک موتوری در معتبرترین شرکتهای تجهیزات پزشکی </t>
+  </si>
+  <si>
+    <t>یکی از معتبرترین شرکتهای تجهیزات پزشکی در راستای تکمیل کار خود با شرایط زیر در تهران استخدام می نماید. عنوان شغلی شرایط احراز پیک موتوری حداقل تحصیلات: دیپلم متاهل دارای موتور کارت پایان خدمت جنسیت : آقا ساعت کاری: ۸:۳۰ صبح تا ۱۷:۰۰ متقاضیان با شماره تلفن زیر داخلی ۱۱۶ تماس حاصل نمایند. تلفن: 02144101011</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%be%db%8c%da%a9-%d9%85%d9%88%d8%aa%d9%88%d8%b1%db%8c-%d8%af%d8%b1-%d9%85%d8%b9%d8%aa%d8%a8%d8%b1%d8%aa%d8%b1%db%8c%d9%86-%d8%b4%d8%b1%da%a9%d8%aa%d9%87/</t>
+  </si>
+  <si>
+    <t>1394/09/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام دیپلم یا فوق دیپلم برق </t>
+  </si>
+  <si>
+    <t>به دیپلم یا فوق دیپلم برق جهت واحد خدمات پس از فروش در تهران نیازمندیم. تلفن: 0218807470 (داخلی 2)</t>
+  </si>
+  <si>
+    <t>http://www.irankar.biz/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%af%db%8c%d9%be%d9%84%d9%85-%db%8c%d8%a7-%d9%81%d9%88%d9%82-%d8%af%db%8c%d9%be%d9%84%d9%85-%d8%a8%d8%b1%d9%82-%d8%aa%d9%87%d8%b1%d8%a7%d9%86-2/</t>
+  </si>
+  <si>
+    <t>1394/03/10</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +657,161 @@
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/outputExcel/fetchedInformation.xlsx
+++ b/outputExcel/fetchedInformation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAEED\Desktop\BusinessSearchEngine\outputExcel\"/>
     </mc:Choice>
@@ -35,7 +35,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,12 +43,236 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="74">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>استخدام بانک کارآفرین در شهر های زنجان، اصفهان و زاهدان</t>
+  </si>
+  <si>
+    <t>بانک کارآفرین در نظر دارد برای تامین نیروی انسانی مورد نیاز خود در شهرهای زنجان، اصفهان و زاهدان  جهت تصدی شغل “متصدی امور بانکی” از داوطلبان واجد شرایط ذیل، استخدام نماید.بانک کارآفرین</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d9%83%d8%a7%d8%b1%d8%a2%d9%81%d8%b1%db%8c%d9%86-%d8%af%d8%b1-%d8%b2%d9%86%d8%ac%d8%a7%d9%86-%d8%a7%d8%b5%d9%81%d9%87%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>1394/08/28</t>
+  </si>
+  <si>
+    <t>استخدام دانشگاه افسری ارتش در سال 94</t>
+  </si>
+  <si>
+    <t>ارتش جمهوری اسلامی ایران در نظر دارد برای تکمیل استخدام افسری مورد نیاز خود در نیروهای زمینی، قرارگاه پدافند هوایی حضرت خاتم الانبیاء (ص) ، هوایی ، دریایی و سازمان های تابعه خود از بین جوانان (پسر) مؤمن، متعهد و علاقمند به حرفه نظامی ، دانشجو  بپذیرد.ارتش جمهوری اسلامی ایران۱۵/۹/۹۴</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%af%d8%a7%d9%86%d8%b4%da%af%d8%a7%d9%87-%d8%a7%d9%81%d8%b3%d8%b1%db%8c-%d8%a7%d8%b1%d8%aa%d8%b4-%d8%af%d8%b1-%d8%b3%d8%a7%d9%84-94.html</t>
+  </si>
+  <si>
+    <t>1394/10/12</t>
+  </si>
+  <si>
+    <t>استخدام بانک صادرات ایران سال ۹۴ (تمدید مهلت ثبت نام)</t>
+  </si>
+  <si>
+    <t>بانک صادرات ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d8%b5%d8%a7%d8%af%d8%b1%d8%a7%d8%aa-%d8%a7%db%8c%d8%b1%d8%a7%d9%86-%d8%b3%d8%a7%d9%84-%db%b9%db%b4-%d8%aa%d9%85%d8%af%db%8c%d8%af.html</t>
+  </si>
+  <si>
+    <t>1394/08/05</t>
+  </si>
+  <si>
+    <t>استخدام شرکت تجارت راه ابریشم در تهران</t>
+  </si>
+  <si>
+    <t>شرکت تجارت راه ابریشم</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%b4%d8%b1%da%a9%d8%aa-%d8%aa%d8%ac%d8%a7%d8%b1%d8%aa-%d8%b1%d8%a7%d9%87-%d8%a7%d8%a8%d8%b1%db%8c%d8%b4%d9%85-%d8%af%d8%b1-%d8%aa%d9%87%d8%b1%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>1394/10/19</t>
+  </si>
+  <si>
+    <t>استخدام شرکت مهندسی و ساخت تاسیسات دریایی ایران</t>
+  </si>
+  <si>
+    <t>شرکت مهندسی و ساخت تاسیسات دریایی ایران (IOEC)</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%b4%d8%b1%da%a9%d8%aa-%d9%85%d9%87%d9%86%d8%af%d8%b3%db%8c-%d8%aa%d8%a7%d8%b3%db%8c%d8%b3%d8%a7%d8%aa-%d8%af%d8%b1%db%8c%d8%a7%db%8c%db%8c.html</t>
+  </si>
+  <si>
+    <t>1394/10/20</t>
+  </si>
+  <si>
+    <t>استخدام چند ردیف شغلی در شرکت آوب واقع در اصفهان</t>
+  </si>
+  <si>
+    <t>شرکت آوب</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%da%86%d9%86%d8%af-%d8%b1%d8%af%db%8c%d9%81-%d8%b4%d8%ba%d9%84%db%8c-%d8%af%d8%b1-%d8%b4%d8%b1%da%a9%d8%aa-%d8%a2%d9%88%d8%a8.html</t>
+  </si>
+  <si>
+    <t>استخدام نیروی دریایی ارتش در سال 94</t>
+  </si>
+  <si>
+    <t>نیروی دریایی ارتش جمهوری اسلامی ایران جهت تامین بخشی از نیروی انسانی مورد نیاز خود در رشته های علمی، بهداشتی، فنی، درمانی اقدام به استخدام افسر پیمانی شش ساله کرده است.نیروی دریایی ارتش جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%86%db%8c%d8%b1%d9%88%db%8c-%d8%af%d8%b1%db%8c%d8%a7%db%8c%db%8c-%d8%a7%d8%b1%d8%aa%d8%b4-%d8%af%d8%b1-%d8%b3%d8%a7%d9%84-94.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت مهندسی سازگان گستر در تهران</t>
+  </si>
+  <si>
+    <t>شرکت مهندسی سازگان گستر از افراد واجد شرایط ذیل استخدام می نماید.شرکت مهندسی سازگان گستر</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%b4%d8%b1%da%a9%d8%aa-%d9%85%d9%87%d9%86%d8%af%d8%b3%db%8c-%d8%b3%d8%a7%d8%b2%da%af%d8%a7%d9%86-%da%af%d8%b3%d8%aa%d8%b1.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت بهین تکنولوژی واقع در تهران</t>
+  </si>
+  <si>
+    <t>شرکت بهین تکنولوژی</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%b4%d8%b1%da%a9%d8%aa-%d8%a8%d9%87%db%8c%d9%86-%d8%aa%da%a9%d9%86%d9%88%d9%84%d9%88%da%98%db%8c-%d8%af%d8%b1-%d8%aa%d9%87%d8%b1%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک حکمت ایرانیان در تهران و زنجان</t>
+  </si>
+  <si>
+    <t>بانک حکمت ایرانیان برای تامین نیروی انسانی مورد نیاز خود در شهرهای تهران و زنجان اقدام به استخدام تعدادی نیروی جدید از از فرزندان کارکنان محترم شاغل و بازنشسته ارتش جمهوری اسلامی ایران بعنوان متصدی امور بانکی کرده است.بانک حکمت ایرانیانمتقاضیان استخدام در بانک حکمت جهت ثبت نام اینجا کلیک کنید</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d8%ad%da%a9%d9%85%d8%aa-%d8%a7%db%8c%d8%b1%d8%a7%d9%86%db%8c%d8%a7%d9%86-%d8%af%d8%b1-%d8%aa%d9%87%d8%b1%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>1394/10/10</t>
+  </si>
+  <si>
+    <t>استخدام چند ردیف شغلی در یک شرکت بازرگانی معتبر در تهران</t>
+  </si>
+  <si>
+    <t>شرکت بازرگانی</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%db%8c%da%a9-%d8%b4%d8%b1%da%a9%d8%aa-%d8%a8%d8%a7%d8%b2%d8%b1%da%af%d8%a7%d9%86%db%8c-%d8%af%d8%b1-%d8%aa%d9%87%d8%b1%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>استخدام اداره امنیت بانک کارآفرین در تهران</t>
+  </si>
+  <si>
+    <t>بانک کارآفرین تهران در نظر دارد جهت تأمین نیروی انسانی مورد نیاز خود در اداره امنیت اطلاعات از داوطلبان واجد شرایط قید شده در جدول ذیل استخدام نماید.بانک کارآفرین تهراناداره امنیت اطلاعات</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a7%d8%af%d8%a7%d8%b1%d9%87-%d8%a7%d9%85%d9%86%db%8c%d8%aa-%d8%a8%d8%a7%d9%86%da%a9-%da%a9%d8%a7%d8%b1%d8%a2%d9%81%d8%b1%db%8c%d9%86.html</t>
+  </si>
+  <si>
+    <t>1394/09/05</t>
+  </si>
+  <si>
+    <t>استخدام یک شرکت خدمات مخابراتی در تهران</t>
+  </si>
+  <si>
+    <t>یک شرکت خدمات مخابراتی در تهران از افراد واجد شرایط استخدام می نماید.یک شرکت خدمات مخابراتی</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%db%8c%da%a9-%d8%b4%d8%b1%da%a9%d8%aa-%d8%ae%d8%af%d9%85%d8%a7%d8%aa-%d9%85%d8%ae%d8%a7%d8%a8%d8%b1%d8%a7%d8%aa%db%8c.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک گردشگری از همکاران بازنشسته شبکه بانکی در سراسر کشور</t>
+  </si>
+  <si>
+    <t>بانک گردشگریتوجه</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%da%af%d8%b1%d8%af%d8%b4%da%af%d8%b1%db%8c-%d8%af%d8%b1-%d8%b3%d8%b1%d8%a7%d8%b3%d8%b1-%da%a9%d8%b4%d9%88%d8%b1.html</t>
+  </si>
+  <si>
+    <t>1394/07/20</t>
+  </si>
+  <si>
+    <t>استخدام بانک حکمت ایرانیان در سال 94</t>
+  </si>
+  <si>
+    <t>بانک حکمت ایرانیان در نظر دارد جهت تامین نیروی با تجربه جهت سمت های ریاست و معاونت در شعب فعال در استان تهران و سایر استان ها از همکاران بازنشسته سایر بانکها به شرج ذیل استخدام نماید.بانک حکمت ایرانیانمتقاضیان محترم جهت ثبت نام اینجا کلیک نمایید.</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d8%ad%d9%83%d9%85%d8%aa-%d8%a7%db%8c%d8%b1%d8%a7%d9%86%db%8c%d8%a7%d9%86-%d8%af%d8%b1-%d8%b3%d8%a7%d9%84-94.html</t>
+  </si>
+  <si>
+    <t>1394/07/25</t>
+  </si>
+  <si>
+    <t>بانک حکمت ایرانیان برای تامین نیروی انسانی مورد نیاز خود در شهرهای تهران و زنجان اقدام به استخدام تعدادی نیروی جدید از از فرزندان کارکنان محترم شاغل و بازنشسته ارتش جمهوری اسلامی ایران بعنوان متصدی امور بانکی کرده است.بانک حکمت ایرانیان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d8%ad%da%a9%d9%85%d8%aa-%d8%af%d8%b1-%d8%aa%d9%87%d8%b1%d8%a7%d9%86-%d9%88-%d8%b2%d9%86%d8%ac%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>1394/10/03</t>
+  </si>
+  <si>
+    <t>استخدام بانک قرض الحسنه مهر ایران در تهران</t>
+  </si>
+  <si>
+    <t>بانک قرض الحسنه مهر ایران برای تامین نیروی انسانی مورد نیاز اداره فناوری اطلاعات و ارتباطات تهران اقدام به استخدام لیسانس و فوق لیسانس مهندس کامپیوتر و فناوری اطلاعات کرده است.بانک قرض الحسنه مهر ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d9%82%d8%b1%d8%b6-%d8%a7%d9%84%d8%ad%d8%b3%d9%86%d9%87-%d9%85%d9%87%d8%b1-%d8%a7%db%8c%d8%b1%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت کشتیرانی جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>کشتیرانی جمهوری اسلامی ایران به منظور تامین نیروی انسانی مورد نیاز جهت اشتغال در کشتی های ناوگان کشتیرانی ج.ا.ا. به عنوان افسر دریایی از بین فارغ‌التحصیلان دارای مدرک دیپلم ریاضی فیزیک با شرایط ذیل دانشجو می‌پذیرد.کشتیرانی جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%b4%d8%b1%da%a9%d8%aa-%da%a9%d8%b4%d8%aa%db%8c%d8%b1%d8%a7%d9%86%db%8c-%d8%ac%d9%85%d9%87%d9%88%d8%b1%db%8c-%d8%a7%d8%b3%d9%84%d8%a7%d9%85%db%8c.html</t>
+  </si>
+  <si>
+    <t>1394/09/19</t>
+  </si>
+  <si>
+    <t>استخدام چند ردیف شغلی در یک شرکت معتبر واقع در استان گیلان</t>
+  </si>
+  <si>
+    <t>یک شرکت معتبر واقع در استان گیلان در ردیف های شغلی بازاریاب، انباردار، آشپز، فروشنده، گرافیست، مدیر فروش و کارگر از تمامی مقاطع تحصیلی جهت تکمیل کادر خود از افراد واجد شرایط استخدام می نماید.شرکت معتبر</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%db%8c%da%a9-%d8%b4%d8%b1%da%a9%d8%aa-%d9%85%d8%b9%d8%aa%d8%a8%d8%b1-%d8%af%d8%b1-%da%af%db%8c%d9%84%d8%a7%d9%86.html</t>
+  </si>
+  <si>
+    <t>استخدام مجموعه رسانه های دیجیتال کانون پیک برتر</t>
+  </si>
+  <si>
+    <t>مجموعه رسانه های دیجیتال کانون پیک برتر، به عنوان بزرگ ترین کانون تبلیغات چاپی و اینترنتی در ایران با بیش از یک دهه فعالیت در عرصه تبلیغات، جهت توسعه سرمایه انسانی خود در شهر تهران دعوت به همکاری می نماید.مجموعه رسانه های دیجیتال کانون پیک برترinfo@ibartar.com</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d9%85%d8%ac%d9%85%d9%88%d8%b9%d9%87-%d8%b1%d8%b3%d8%a7%d9%86%d9%87-%d9%87%d8%a7%db%8c-%d8%af%db%8c%d8%ac%db%8c%d8%aa%d8%a7%d9%84.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک ملت _ سال ۹۴</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/%d8%a7%d8%b3%d8%aa%d8%ae%d8%af%d8%a7%d9%85-%d8%a8%d8%a7%d9%86%da%a9-%d9%85%d9%84%d8%aa-_-%d8%b3%d8%a7%d9%84-%db%b9%db%b4.html</t>
+  </si>
+  <si>
+    <t>1394/08/14</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,7 +804,518 @@
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/outputExcel/fetchedInformation.xlsx
+++ b/outputExcel/fetchedInformation.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="116">
   <si>
     <t/>
   </si>
@@ -154,6 +154,243 @@
   </si>
   <si>
     <t>1394/03/10</t>
+  </si>
+  <si>
+    <t>استخدام بانک کارآفرین در شهر های زنجان، اصفهان و زاهدان</t>
+  </si>
+  <si>
+    <t>بانک کارآفرین در نظر دارد برای تامین نیروی انسانی مورد نیاز خود در شهرهای زنجان، اصفهان و زاهدان  جهت تصدی شغل “متصدی امور بانکی” از داوطلبان واجد شرایط ذیل، استخدام نماید. بانک کارآفرین</t>
+  </si>
+  <si>
+    <t>اصفهان زنجان سیستان و بلوچستان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-كارآفرین-در-زنجان-اصفهان.html</t>
+  </si>
+  <si>
+    <t>1394/08/28</t>
+  </si>
+  <si>
+    <t>استخدام چند ردیف شغلی در یک شرکت مهندسی واقع در تهران</t>
+  </si>
+  <si>
+    <t>یک شرکت مهندسی جهت پروژه های EPC واقع در منطقه غرب تهران از مهندسین برق ، کارشناس فروش ، مسئول حسابداری ، نیروی اجرایی برق و آبدارچی جهت تکمیل کادر خود از افراد واجد شرایط استخدام می نماید. شرکت مهندسی</t>
+  </si>
+  <si>
+    <t>تهران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-یک-شرکت-مهندسی-در-تهران.html</t>
+  </si>
+  <si>
+    <t>1394/10/21</t>
+  </si>
+  <si>
+    <t>استخدام یک شرکت تولیدی صادراتی معتبر واقع در استان یزد</t>
+  </si>
+  <si>
+    <t>یک شرکت تولیدی صادراتی معتبر واقع در استان یزد از مهندسین الکترونیک ، صنایع ، کارشناس فروش و مسئول دفتر جهت تامین نیروی انسانی خود از افراد واجد شرایط استخدام می نماید. شرکت تولیدی صادراتی</t>
+  </si>
+  <si>
+    <t>یزد</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-یک-شرکت-تولیدی-صادراتی-در-یزد.html</t>
+  </si>
+  <si>
+    <t>استخدام دانشگاه افسری ارتش در سال 94</t>
+  </si>
+  <si>
+    <t>ارتش جمهوری اسلامی ایران در نظر دارد برای تکمیل استخدام افسری مورد نیاز خود در نیروهای زمینی، قرارگاه پدافند هوایی حضرت خاتم الانبیاء (ص) ، هوایی ، دریایی و سازمان های تابعه خود از بین جوانان (پسر) مؤمن، متعهد و علاقمند به حرفه نظامی ، دانشجو  بپذیرد. ارتش جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>سراسر کشور</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-دانشگاه-افسری-ارتش-در-سال-94.html</t>
+  </si>
+  <si>
+    <t>1394/10/12</t>
+  </si>
+  <si>
+    <t>استخدام بانک صادرات ایران سال ۹۴ (تمدید مهلت ثبت نام)</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-صادرات-ایران-سال-۹۴-تمدید.html</t>
+  </si>
+  <si>
+    <t>1394/08/05</t>
+  </si>
+  <si>
+    <t>استخدام شرکت مهندسی و ساخت تاسیسات دریایی ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-مهندسی-تاسیسات-دریایی.html</t>
+  </si>
+  <si>
+    <t>استخدام نیروی دریایی ارتش در سال 94</t>
+  </si>
+  <si>
+    <t>نیروی دریایی ارتش جمهوری اسلامی ایران جهت تامین بخشی از نیروی انسانی مورد نیاز خود در رشته های علمی، بهداشتی، فنی، درمانی اقدام به استخدام افسر پیمانی شش ساله کرده است. نیروی دریایی ارتش جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-نیروی-دریایی-ارتش-در-سال-94.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت مهندسی سازگان گستر در تهران</t>
+  </si>
+  <si>
+    <t>شرکت مهندسی سازگان گستر از افراد واجد شرایط ذیل استخدام می نماید. شرکت مهندسی سازگان گستر</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-مهندسی-سازگان-گستر.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک حکمت ایرانیان در تهران و زنجان</t>
+  </si>
+  <si>
+    <t>بانک حکمت ایرانیان برای تامین نیروی انسانی مورد نیاز خود در شهرهای تهران و زنجان اقدام به استخدام تعدادی نیروی جدید از از فرزندان کارکنان محترم شاغل و بازنشسته ارتش جمهوری اسلامی ایران بعنوان متصدی امور بانکی کرده است. بانک حکمت ایرانیان</t>
+  </si>
+  <si>
+    <t>تهران زنجان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-حکمت-ایرانیان-در-تهران.html</t>
+  </si>
+  <si>
+    <t>1394/10/10</t>
+  </si>
+  <si>
+    <t>استخدام اداره امنیت بانک کارآفرین در تهران</t>
+  </si>
+  <si>
+    <t>بانک کارآفرین تهران در نظر دارد جهت تأمین نیروی انسانی مورد نیاز خود در اداره امنیت اطلاعات از داوطلبان واجد شرایط قید شده در جدول ذیل استخدام نماید. بانک کارآفرین تهران در نظر دارد جهت تأمین نیروی انسانی مورد نیاز خود در اداره امنیت اطلاعات از داوطلبان واجد شرایط قید شده در جدول ذیل استخدام نماید. بانک کارآفرین تهران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-اداره-امنیت-بانک-کارآفرین.html</t>
+  </si>
+  <si>
+    <t>1394/09/05</t>
+  </si>
+  <si>
+    <t>استخدام یک شرکت خدمات مخابراتی در تهران</t>
+  </si>
+  <si>
+    <t>یک شرکت خدمات مخابراتی در تهران از افراد واجد شرایط استخدام می نماید. یک شرکت خدمات مخابراتی</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-یک-شرکت-خدمات-مخابراتی.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت مهندسی ارتباطات بارقه پردیس</t>
+  </si>
+  <si>
+    <t>شرکت ارتباطات بارقه پردیس جهت تکمیل کادر فنی خود به صورت تمام وقت دعوت به همکاری می نماید. شرکت ارتباطات بارقه پردیس</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-مهندسی-بارقه-پردیس-3.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک گردشگری از همکاران بازنشسته شبکه بانکی در سراسر کشور</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-گردشگری-در-سراسر-کشور.html</t>
+  </si>
+  <si>
+    <t>1394/07/20</t>
+  </si>
+  <si>
+    <t>استخدام بانک حکمت ایرانیان در سال 94</t>
+  </si>
+  <si>
+    <t>بانک حکمت ایرانیان در نظر دارد جهت تامین نیروی با تجربه جهت سمت های ریاست و معاونت در شعب فعال در استان تهران و سایر استان ها از همکاران بازنشسته سایر بانکها به شرج ذیل استخدام نماید. بانک حکمت ایرانیان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-حكمت-ایرانیان-در-سال-94.html</t>
+  </si>
+  <si>
+    <t>1394/07/25</t>
+  </si>
+  <si>
+    <t>استخدام شرکت پیک آسا در تهران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-پیک-آسا-در-تهران.html</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-حکمت-در-تهران-و-زنجان.html</t>
+  </si>
+  <si>
+    <t>1394/10/03</t>
+  </si>
+  <si>
+    <t>استخدام بانک قرض الحسنه مهر ایران در تهران</t>
+  </si>
+  <si>
+    <t>بانک قرض الحسنه مهر ایران برای تامین نیروی انسانی مورد نیاز اداره فناوری اطلاعات و ارتباطات تهران اقدام به استخدام لیسانس و فوق لیسانس مهندس کامپیوتر و فناوری اطلاعات کرده است. بانک قرض الحسنه مهر ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-قرض-الحسنه-مهر-ایران.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت صبا صنعت در استان اصفهان</t>
+  </si>
+  <si>
+    <t>شرکت صبا صنعت در استان اصفهان از مقاطع تحصیلی کارشناسی و کارشناسی ارشد رشته های برق ، مکانیک ،شیمی ، صنایع ، پایپینگ ، حسابداری و بازرگانی مسلط به زبان انگلیسی و نرم افزارهای تخصصی مربوطه در چند ردیف شغلی جهت تکمیل کادر خود استخدام می نماید.  شرکت صبا صنعت</t>
+  </si>
+  <si>
+    <t>اصفهان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-صبا-صنعت-در-استان-اصفهان.html</t>
+  </si>
+  <si>
+    <t>استخدام شرکت کشتیرانی جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>کشتیرانی جمهوری اسلامی ایران به منظور تامین نیروی انسانی مورد نیاز جهت اشتغال در کشتی های ناوگان کشتیرانی ج.ا.ا. به عنوان افسر دریایی از بین فارغ‌التحصیلان دارای مدرک دیپلم ریاضی فیزیک با شرایط ذیل دانشجو می‌پذیرد. کشتیرانی جمهوری اسلامی ایران</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-شرکت-کشتیرانی-جمهوری-اسلامی.html</t>
+  </si>
+  <si>
+    <t>1394/09/19</t>
+  </si>
+  <si>
+    <t>استخدام چند ردیف شغلی در یک شرکت معتبر واقع در استان گیلان</t>
+  </si>
+  <si>
+    <t>یک شرکت معتبر واقع در استان گیلان در ردیف های شغلی بازاریاب، انباردار، آشپز، فروشنده، گرافیست، مدیر فروش و کارگر از تمامی مقاطع تحصیلی جهت تکمیل کادر خود از افراد واجد شرایط استخدام می نماید. شرکت معتبر</t>
+  </si>
+  <si>
+    <t>گیلان</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-یک-شرکت-معتبر-در-گیلان.html</t>
+  </si>
+  <si>
+    <t>استخدام مجموعه رسانه های دیجیتال کانون پیک برتر</t>
+  </si>
+  <si>
+    <t>مجموعه رسانه های دیجیتال کانون پیک برتر، به عنوان بزرگ ترین کانون تبلیغات چاپی و اینترنتی در ایران با بیش از یک دهه فعالیت در عرصه تبلیغات، جهت توسعه سرمایه انسانی خود در شهر تهران دعوت به همکاری می نماید. مجموعه رسانه های دیجیتال کانون پیک برتر</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-مجموعه-رسانه-های-دیجیتال.html</t>
+  </si>
+  <si>
+    <t>استخدام بانک ملت _ سال ۹۴</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-ملت-_-سال-۹۴.html</t>
+  </si>
+  <si>
+    <t>1394/08/14</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-ملت-_-سال-۹۴.html/comment-page-1/</t>
+  </si>
+  <si>
+    <t>http://job.pnuna.com/1394/استخدام-بانک-ملت-_-سال-۹۴.html/comment-page-1/#comment-152</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1084,416 @@
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
